--- a/database/industries/shishe/kemina/product/yearly_seprated.xlsx
+++ b/database/industries/shishe/kemina/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kemina\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kemina\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59942345-771A-4A64-A9D1-3CB882E37BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5AF62A-5A50-499B-9B7B-A09C38AAF9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -554,12 +554,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -569,7 +569,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +593,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,7 +603,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -637,7 +637,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -669,7 +669,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -693,7 +693,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -741,7 +741,7 @@
         <v>32897</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -765,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -813,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
@@ -835,7 +835,7 @@
         <v>33165</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -845,7 +845,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -855,7 +855,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -865,7 +865,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -897,7 +897,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -921,7 +921,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>10</v>
       </c>
@@ -945,7 +945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>14</v>
       </c>
@@ -969,7 +969,7 @@
         <v>33908</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
@@ -993,7 +993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>34191</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1097,7 +1097,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1107,7 +1107,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1117,7 +1117,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>363082</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>2916661</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>3283410</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1277,7 +1277,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1287,7 +1287,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1297,7 +1297,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1329,7 +1329,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1287524823</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>14</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>86016899</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>16</v>
       </c>
